--- a/Data/Transitions/19461974Translation.xlsx
+++ b/Data/Transitions/19461974Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="748">
   <si>
     <t>id</t>
   </si>
@@ -79,13 +79,13 @@
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.9985255086994986, 681.0: 0.005648551134411849, 741.0: 0.001379178879419197, 246.0: 0.0019479775409648218}</t>
+    <t>{46.0: 0.9985255086994986, 681.0: 0.005648551134411849, 741.0: 0.0013872263249506789, 246.0: 0.0019479775409648218}</t>
   </si>
   <si>
     <t>{47.0: 0.9879518072289156}</t>
   </si>
   <si>
-    <t>{49.0: 0.8927723425900513}</t>
+    <t>{49.0: 0.8862897962909823}</t>
   </si>
   <si>
     <t>{50.0: 0.989247311827957, 96.0: 0.989247311827957, 100.0: 0.989247311827957}</t>
@@ -136,7 +136,7 @@
     <t>{78.0: 1.0}</t>
   </si>
   <si>
-    <t>{79.0: 0.9993500645023944, 271.0: 0.014820863280979566, 262.0: 0.0031614305473226635}</t>
+    <t>{79.0: 0.9993781418780706, 271.0: 0.014820863280979566, 262.0: 0.0031614305473226635}</t>
   </si>
   <si>
     <t>{81.0: 0.9862542955326461}</t>
@@ -166,16 +166,16 @@
     <t>{90.0: 0.999293500201857, 420.0: 0.0017320652248592728}</t>
   </si>
   <si>
-    <t>{91.0: 1.0, 92.0: 0.04376513415565631, 858.0: 0.004867508316901873}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.9562348658443437, 858.0: 0.10635135141719504}</t>
+    <t>{91.0: 1.0, 92.0: 0.04376513415565631, 858.0: 0.00453890631355781}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.9562348658443437, 858.0: 0.09917164778675883}</t>
   </si>
   <si>
     <t>{95.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9748096321134647}</t>
+    <t>{97.0: 0.9748314063154819}</t>
   </si>
   <si>
     <t>{98.0: 0.801192063367579}</t>
@@ -217,7 +217,7 @@
     <t>{144.0: 1.0}</t>
   </si>
   <si>
-    <t>{145.0: 0.9987441357199506, 743.0: 0.002920931244925139, 544.0: 2.533420491138831e-06, 975.0: 0.005110374932125487, 942.0: 0.03131128830016397, 152.0: 0.00036603571619543685}</t>
+    <t>{145.0: 0.9987441357199506, 743.0: 0.0029287602462860877, 544.0: 2.533420491138831e-06, 975.0: 0.005110374932125487, 942.0: 0.03131128830016397, 152.0: 0.00036603571619543685}</t>
   </si>
   <si>
     <t>{146.0: 1.0}</t>
@@ -265,7 +265,7 @@
     <t>{171.0: 0.9402494826791316}</t>
   </si>
   <si>
-    <t>{172.0: 1.0, 81.0: 0.013745704467353952, 97.0: 0.001254904263791793}</t>
+    <t>{172.0: 1.0, 81.0: 0.013745704467353952, 97.0: 0.0012549322944329067}</t>
   </si>
   <si>
     <t>{173.0: 0.9233712163834815, 185.0: 0.024849397590361446, 700.0: 0.0003822523607160589, 420.0: 0.0055694725870200175, 831.0: 0.004032258064516129}</t>
@@ -283,7 +283,7 @@
     <t>{177.0: 1.0, 562.0: 0.0005025757004648825}</t>
   </si>
   <si>
-    <t>{178.0: 0.9847554038680318, 681.0: 0.010330059016298597, 768.0: 0.012138970280452072}</t>
+    <t>{178.0: 0.9847554038680318, 681.0: 0.010415463666074353, 768.0: 0.012138970280452072}</t>
   </si>
   <si>
     <t>{179.0: 1.0, 180.0: 0.2102963895697321}</t>
@@ -304,10 +304,10 @@
     <t>{184.0: 0.9938086184968266, 778.0: 0.0034971470642370696, 420.0: 5.360433881417949e-06}</t>
   </si>
   <si>
-    <t>{858.0: 0.45766386834936346}</t>
-  </si>
-  <si>
-    <t>{311.0: 1.140246459639255}</t>
+    <t>{858.0: 0.3251826980051353}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.710222727687857}</t>
   </si>
   <si>
     <t>{202.0: 0.9989543030429782}</t>
@@ -388,13 +388,13 @@
     <t>{233.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.10722765740994868}</t>
+    <t>{49.0: 0.1137102037090177}</t>
   </si>
   <si>
     <t>{236.0: 1.0}</t>
   </si>
   <si>
-    <t>{238.0: 1.0, 253.0: 0.0025682932523931824}</t>
+    <t>{238.0: 1.0, 253.0: 0.0025246729400963965}</t>
   </si>
   <si>
     <t>{239.0: 1.0}</t>
@@ -412,10 +412,10 @@
     <t>{244.0: 0.9799247176913425, 565.0: 0.010029762906098711, 564.0: 0.00018847476794044198, 84.0: 6.004536785832098e-05}</t>
   </si>
   <si>
-    <t>{858.0: 0.36701058067946674}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.9980520224590351, 46.0: 0.001474491300501327, 681.0: 8.34103829653256e-06, 741.0: 2.0365901940626062e-06, 618.0: 0.0016652789342214821}</t>
+    <t>{858.0: 0.262525543590365}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.9980520224590351, 46.0: 0.001474491300501327, 681.0: 8.34103829653256e-06, 741.0: 2.0484736044753086e-06, 618.0: 0.0016652789342214821}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -436,7 +436,7 @@
     <t>{252.0: 1.0}</t>
   </si>
   <si>
-    <t>{253.0: 0.9861425329695047}</t>
+    <t>{253.0: 0.9861856595765358}</t>
   </si>
   <si>
     <t>{254.0: 1.0}</t>
@@ -460,7 +460,7 @@
     <t>{261.0: 1.0}</t>
   </si>
   <si>
-    <t>{262.0: 0.9968385694526773, 79.0: 0.0006499354976056577}</t>
+    <t>{262.0: 0.9968385694526773, 79.0: 0.0006218581219293059}</t>
   </si>
   <si>
     <t>{263.0: 0.9979662270430174}</t>
@@ -469,7 +469,7 @@
     <t>{265.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 0.0657712818487063}</t>
+    <t>{400.0: 0.061638130495141136}</t>
   </si>
   <si>
     <t>{271.0: 0.9851791367190204, 237.0: 1.0}</t>
@@ -508,7 +508,7 @@
     <t>{284.0: 1.0}</t>
   </si>
   <si>
-    <t>{285.0: 1.0, 311.0: -0.01593502092076081, 70.0: 1.0}</t>
+    <t>{285.0: 1.0, 311.0: 0.11340988641029195, 70.0: 1.0}</t>
   </si>
   <si>
     <t>{286.0: 1.0, 909.0: 0.11458663141263672, 306.0: 0.011054877862037047, 908.0: 0.04976895689720476, 788.0: 0.0027733768944140946, 142.0: 1.797534470597053e-05}</t>
@@ -547,7 +547,7 @@
     <t>{300.0: 1.0}</t>
   </si>
   <si>
-    <t>{301.0: 1.0, 145.0: 0.00038146212501716855, 743.0: 1.1156257142025587e-06, 544.0: 9.676191624546752e-10, 975.0: 1.9518657597301533e-06, 942.0: 1.195908956541287e-05, 152.0: 1.3980433740563627e-07}</t>
+    <t>{301.0: 1.0, 145.0: 0.00038146212501716855, 743.0: 1.118615937012485e-06, 544.0: 9.676191624546752e-10, 975.0: 1.9518657597301533e-06, 942.0: 1.195908956541287e-05, 152.0: 1.3980433740563627e-07}</t>
   </si>
   <si>
     <t>{303.0: 0.9475683890577508, 840.0: 0.10136869118905047}</t>
@@ -571,7 +571,7 @@
     <t>{310.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: -0.12431143871849425}</t>
+    <t>{311.0: 0.17636738590185097}</t>
   </si>
   <si>
     <t>{312.0: 1.0, 5.0: 0.016017234919445487, 759.0: 0.003654342218400688, 226.0: 0.0002714072465734835}</t>
@@ -592,7 +592,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6871389480085133}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0, 98.0: 0.198807936632421, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
@@ -601,7 +601,7 @@
     <t>{399.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 0.9342287181512937, 50.0: 0.010752688172043012, 96.0: 0.010752688172043012, 100.0: 0.010752688172043012}</t>
+    <t>{400.0: 0.9383618695048589, 50.0: 0.010752688172043012, 96.0: 0.010752688172043012, 100.0: 0.010752688172043012}</t>
   </si>
   <si>
     <t>{401.0: 1.0, 16.0: 0.005869490159972379, 165.0: 0.0005466721333880005, 914.0: 0.0001117479774241194, 110.0: 1.5428089554535637e-05}</t>
@@ -670,10 +670,10 @@
     <t>{426.0: 1.0}</t>
   </si>
   <si>
-    <t>{428.0: 0.26721824686940965, 755.0: 0.13485851896447923}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.7327817531305904}</t>
+    <t>{428.0: 0.21205489175440673, 755.0: 0.13485851896447923}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.7879451082455933}</t>
   </si>
   <si>
     <t>{429.0: 1.0}</t>
@@ -760,13 +760,13 @@
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 0.995625, 85.0: 0.0014297385620915032, 178.0: 0.015244596131968146, 97.0: 0.023935463622743416}</t>
+    <t>{492.0: 0.995625, 85.0: 0.0014297385620915032, 178.0: 0.015244596131968146, 97.0: 0.023913661390085057}</t>
   </si>
   <si>
     <t>{493.0: 0.9964826549013788}</t>
   </si>
   <si>
-    <t>{494.0: 0.979825999243475, 889.0: 0.0006215198201897897, 565.0: 1.629934096866161e-05}</t>
+    <t>{494.0: 0.979825999243475, 889.0: 0.0010856577184348603, 565.0: 1.629934096866161e-05}</t>
   </si>
   <si>
     <t>{495.0: 1.0}</t>
@@ -823,7 +823,7 @@
     <t>{536.0: 1.0, 779.0: 0.9517781796262809}</t>
   </si>
   <si>
-    <t>{537.0: 1.0, 608.0: 0.027455765710799267, 293.0: 0.035617916891527254}</t>
+    <t>{537.0: 1.0, 608.0: 0.026122291021671826, 293.0: 0.035617916891527254}</t>
   </si>
   <si>
     <t>{538.0: 0.9993696816892531}</t>
@@ -835,7 +835,7 @@
     <t>{540.0: 1.0}</t>
   </si>
   <si>
-    <t>{542.0: 1.0, 911.0: 0.012496045555204052}</t>
+    <t>{542.0: 1.0, 911.0: 0.012482224680044242}</t>
   </si>
   <si>
     <t>{543.0: 1.0}</t>
@@ -889,7 +889,7 @@
     <t>{582.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.45294474802671525}</t>
+    <t>{583.0: 0.5739952718676123}</t>
   </si>
   <si>
     <t>{584.0: 1.0}</t>
@@ -907,16 +907,16 @@
     <t>{588.0: 1.0}</t>
   </si>
   <si>
-    <t>{589.0: 1.0, 145.0: 0.000656024491581019, 743.0: 0.013299521821319988, 10.0: 0.006268500783562598}</t>
+    <t>{589.0: 1.0, 145.0: 0.000656024491581019, 743.0: 0.010654858616757608, 10.0: 0.006268500783562598}</t>
   </si>
   <si>
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.3232683533803401}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.6767316466196599, 85.0: 0.005416860752281957, 492.0: 1.8647119341563785e-05}</t>
+    <t>{593.0: 0.49682353666810586}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.5031764633318941, 85.0: 0.005416860752281957, 492.0: 1.8647119341563785e-05}</t>
   </si>
   <si>
     <t>{595.0: 1.0}</t>
@@ -946,7 +946,7 @@
     <t>{607.0: 0.9993920972644377, 276.0: 0.00019373695788784293}</t>
   </si>
   <si>
-    <t>{608.0: 0.9725442342892008}</t>
+    <t>{608.0: 0.9738777089783281}</t>
   </si>
   <si>
     <t>{609.0: 1.0, 610.0: 0.0008002743797873557, 531.0: 0.12147832833239579, 886.0: 0.05296831411160708, 1.0: 1.0}</t>
@@ -973,7 +973,7 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{618.0: 0.9983347210657785, 789.0: 0.10684711957973467, 681.0: 0.008360022404934518, 171.0: 4.0428638151574166e-05, 90.0: 6.01421623358749e-06, 420.0: 1.042437961507482e-08, 212.0: 6.516894539153505e-05}</t>
+    <t>{618.0: 0.9983347210657785, 789.0: 0.10684711957973467, 681.0: 0.008359295381328206, 171.0: 4.0428638151574166e-05, 90.0: 6.01421623358749e-06, 420.0: 1.042437961507482e-08, 212.0: 6.516894539153505e-05}</t>
   </si>
   <si>
     <t>{619.0: 0.9992133045579098}</t>
@@ -1024,7 +1024,7 @@
     <t>{680.0: 0.9762594508880611, 481.0: 0.018092175285225227, 529.0: 0.008019367529126948, 530.0: 0.008019367529126948, 853.0: 4.911970472040362e-05, 207.0: 2.1804120894588614e-05}</t>
   </si>
   <si>
-    <t>{681.0: 0.9038226351951332, 171.0: 0.004370839753962654, 90.0: 0.0006502117460433972, 420.0: 1.1270053831925288e-06, 212.0: 0.007045575370934223}</t>
+    <t>{681.0: 0.9037440348804595, 171.0: 0.004370839753962654, 90.0: 0.0006502117460433972, 420.0: 1.1270053831925288e-06, 212.0: 0.007045575370934223}</t>
   </si>
   <si>
     <t>{682.0: 0.9972826086956522, 575.0: 0.001898599635799961}</t>
@@ -1063,10 +1063,10 @@
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.20776196468091965}</t>
-  </si>
-  <si>
-    <t>{698.0: 0.7922380353190803, 683.0: 0.00887163848073191}</t>
+    <t>{698.0: 0.4351638564266561}</t>
+  </si>
+  <si>
+    <t>{698.0: 0.5648361435733439, 683.0: 0.00887163848073191}</t>
   </si>
   <si>
     <t>{700.0: 0.305450470947286}</t>
@@ -1117,16 +1117,16 @@
     <t>{739.0: 1.0, 831.0: 0.0011072459610177697}</t>
   </si>
   <si>
-    <t>{740.0: 1.0, 789.0: 0.8931528804202653, 681.0: 0.06988282061991512, 171.0: 0.00033794972441536703, 90.0: 5.0273835865930085e-05, 420.0: 8.713912659901293e-08, 212.0: 0.00054475807601874}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.9986187845303868}</t>
-  </si>
-  <si>
-    <t>{583.0: 0.5470552519732848}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.9837784313080407, 145.0: 0.0002183776634512975, 544.0: 0.0008532636435542259, 975.0: 6.058676758964917e-07}</t>
+    <t>{740.0: 1.0, 789.0: 0.8931528804202653, 681.0: 0.06987674330841935, 171.0: 0.00033794972441536703, 90.0: 5.0273835865930085e-05, 420.0: 8.713912659901293e-08, 212.0: 0.00054475807601874}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.9986107252014449}</t>
+  </si>
+  <si>
+    <t>{583.0: 0.4260047281323877}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.9864152625210193, 145.0: 0.0002183776634512975, 544.0: 0.0008532636435542259, 975.0: 6.058676758964917e-07}</t>
   </si>
   <si>
     <t>{746.0: 1.0}</t>
@@ -1213,7 +1213,7 @@
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.9927452636939863, 889.0: 0.5730622017651047}</t>
+    <t>{785.0: 0.9927452636939863, 889.0: 0.25659597967009595}</t>
   </si>
   <si>
     <t>{787.0: 1.0, 500.0: 0.0077458518588053235, 277.0: 2.053999443459568e-06}</t>
@@ -1258,7 +1258,7 @@
     <t>{846.0: 0.9996156310057656}</t>
   </si>
   <si>
-    <t>{848.0: 0.9232439017315892}</t>
+    <t>{848.0: 0.9228851136919364}</t>
   </si>
   <si>
     <t>{849.0: 1.0, 315.0: 0.002220029600394672}</t>
@@ -1288,7 +1288,7 @@
     <t>{857.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.06410669123707292, 107.0: 0.0278667936092618, 505.0: 0.0002593187665858292}</t>
+    <t>{858.0: 0.308581204304183, 107.0: 0.0278667936092618, 505.0: 0.0002593187665858292}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1309,7 +1309,7 @@
     <t>{887.0: 0.9495979142632915, 619.0: 0.0006435006435006435, 267.0: 0.07029177718832891}</t>
   </si>
   <si>
-    <t>{889.0: 0.4244980371896264, 565.0: 0.01113244988159588, 494.0: 0.020174000756525028}</t>
+    <t>{889.0: 0.7415042216910095, 565.0: 0.01113244988159588, 494.0: 0.020174000756525028}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1342,10 +1342,10 @@
     <t>{909.0: 0.8854133685873632}</t>
   </si>
   <si>
-    <t>{911.0: 0.987503954444796, 687.0: 0.006852159468438538}</t>
-  </si>
-  <si>
-    <t>{861.0: 1.0, 225.0: 1.0, 779.0: 0.04822182037371911, 493.0: 0.0028425812659627287, 619.0: 0.0001431947985895543, 253.0: 0.011289173778102075}</t>
+    <t>{911.0: 0.9875177753199558, 687.0: 0.006852159468438538}</t>
+  </si>
+  <si>
+    <t>{861.0: 1.0, 225.0: 1.0, 779.0: 0.04822182037371911, 493.0: 0.0028425812659627287, 619.0: 0.0001431947985895543, 253.0: 0.01128966748336775}</t>
   </si>
   <si>
     <t>{913.0: 1.0}</t>
@@ -1414,7 +1414,7 @@
     <t>{937.0: 1.0}</t>
   </si>
   <si>
-    <t>{940.0: 1.0, 785.0: 0.007254736306013725, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 889.0: 0.0018182412250789639}</t>
+    <t>{940.0: 1.0, 785.0: 0.007254736306013725, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 889.0: 0.0008141409204596781}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
@@ -1423,7 +1423,7 @@
     <t>{942.0: 0.9686767526102706}</t>
   </si>
   <si>
-    <t>{943.0: 1.0, 848.0: 0.07675609826841082}</t>
+    <t>{943.0: 1.0, 848.0: 0.07711488630806371}</t>
   </si>
   <si>
     <t>{944.0: 0.9511068120833203}</t>
@@ -1618,7 +1618,7 @@
     <t>{177.0: 0.9988607234406153, 562.0: 0.0011392765593847907}</t>
   </si>
   <si>
-    <t>{178.0: 0.986260226386314, 681.0: 0.007171753079185206, 768.0: 0.006568020534500982}</t>
+    <t>{178.0: 0.9862044958405798, 681.0: 0.00722748362491933, 768.0: 0.006568020534500982}</t>
   </si>
   <si>
     <t>{179.0: 0.8967913904273564, 180.0: 0.10320860957264365}</t>
@@ -1720,7 +1720,7 @@
     <t>{271.0: 0.8115203638861601, 237.0: 0.1884796361138399}</t>
   </si>
   <si>
-    <t>{275.0: 0.9445925803714912, 921.0: 0.009442148944137254, 77.0: 0.045965270684371805}</t>
+    <t>{275.0: 0.944592580371491, 921.0: 0.009442148944137254, 77.0: 0.045965270684371805}</t>
   </si>
   <si>
     <t>{276.0: 0.9986445928937943, 167.0: 0.0005680531756420232, 596.0: 0.0007873539305638049}</t>
@@ -1777,9 +1777,6 @@
     <t>{315.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{398.0: 0.8644858180802012, 98.0: 0.04427483582506636, 532.0: 0.0650062875506497, 560.0: 0.02623305854408272}</t>
   </si>
   <si>
@@ -2116,7 +2113,7 @@
     <t>{781.0: 0.9992775312209718, 435.0: 0.0007224687790277634}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047504, 889.0: 0.20471452899524964}</t>
+    <t>{785.0: 0.6852693950668322, 889.0: 0.314730604933168}</t>
   </si>
   <si>
     <t>{787.0: 0.9919894647611931, 500.0: 0.0080055674650148, 277.0: 4.967773791507788e-06}</t>
@@ -2236,13 +2233,13 @@
     <t>{936.0: 0.9836341995635787, 637.0: 0.016365800436421343}</t>
   </si>
   <si>
-    <t>{940.0: 0.9864997747918502, 785.0: 0.010626942004023135, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 889.0: 0.0009868862223623436}</t>
+    <t>{940.0: 0.9864997747918502, 785.0: 0.010096577353725059, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 889.0: 0.00151725087266042}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.8000222720249447, 848.0: 0.19997772797505534}</t>
+    <t>{943.0: 0.770064142065748, 848.0: 0.22993585793425234}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
@@ -4722,7 +4719,7 @@
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>587</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4733,7 +4730,7 @@
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4755,7 +4752,7 @@
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4766,7 +4763,7 @@
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4777,7 +4774,7 @@
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4788,7 +4785,7 @@
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4799,7 +4796,7 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4843,7 +4840,7 @@
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4865,7 +4862,7 @@
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4909,7 +4906,7 @@
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4931,7 +4928,7 @@
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4964,7 +4961,7 @@
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4986,7 +4983,7 @@
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -5008,7 +5005,7 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -5019,7 +5016,7 @@
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -5063,7 +5060,7 @@
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -5085,7 +5082,7 @@
         <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -5096,7 +5093,7 @@
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -5107,7 +5104,7 @@
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -5129,7 +5126,7 @@
         <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -5173,7 +5170,7 @@
         <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -5184,7 +5181,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -5195,7 +5192,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5206,7 +5203,7 @@
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5217,7 +5214,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5239,7 +5236,7 @@
         <v>239</v>
       </c>
       <c r="C238" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -5305,7 +5302,7 @@
         <v>245</v>
       </c>
       <c r="C244" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -5338,7 +5335,7 @@
         <v>248</v>
       </c>
       <c r="C247" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5349,7 +5346,7 @@
         <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5360,7 +5357,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5382,7 +5379,7 @@
         <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5393,7 +5390,7 @@
         <v>253</v>
       </c>
       <c r="C252" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5404,7 +5401,7 @@
         <v>254</v>
       </c>
       <c r="C253" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5415,7 +5412,7 @@
         <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5459,7 +5456,7 @@
         <v>259</v>
       </c>
       <c r="C258" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -5492,7 +5489,7 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5503,7 +5500,7 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5514,7 +5511,7 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5536,7 +5533,7 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5558,7 +5555,7 @@
         <v>268</v>
       </c>
       <c r="C267" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5569,7 +5566,7 @@
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5580,7 +5577,7 @@
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5613,7 +5610,7 @@
         <v>273</v>
       </c>
       <c r="C272" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5635,7 +5632,7 @@
         <v>275</v>
       </c>
       <c r="C274" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5646,7 +5643,7 @@
         <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5657,7 +5654,7 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5668,7 +5665,7 @@
         <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5679,7 +5676,7 @@
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5690,7 +5687,7 @@
         <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5712,7 +5709,7 @@
         <v>282</v>
       </c>
       <c r="C281" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5723,7 +5720,7 @@
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5745,7 +5742,7 @@
         <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5756,7 +5753,7 @@
         <v>286</v>
       </c>
       <c r="C285" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5778,7 +5775,7 @@
         <v>288</v>
       </c>
       <c r="C287" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5789,7 +5786,7 @@
         <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5811,7 +5808,7 @@
         <v>291</v>
       </c>
       <c r="C290" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -5833,7 +5830,7 @@
         <v>293</v>
       </c>
       <c r="C292" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5844,7 +5841,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5877,7 +5874,7 @@
         <v>297</v>
       </c>
       <c r="C296" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5899,7 +5896,7 @@
         <v>299</v>
       </c>
       <c r="C298" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5910,7 +5907,7 @@
         <v>300</v>
       </c>
       <c r="C299" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5932,7 +5929,7 @@
         <v>302</v>
       </c>
       <c r="C301" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5943,7 +5940,7 @@
         <v>303</v>
       </c>
       <c r="C302" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5965,7 +5962,7 @@
         <v>305</v>
       </c>
       <c r="C304" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5976,7 +5973,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5998,7 +5995,7 @@
         <v>308</v>
       </c>
       <c r="C307" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -6009,7 +6006,7 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -6020,7 +6017,7 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -6031,7 +6028,7 @@
         <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -6053,7 +6050,7 @@
         <v>313</v>
       </c>
       <c r="C312" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -6064,7 +6061,7 @@
         <v>314</v>
       </c>
       <c r="C313" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -6097,7 +6094,7 @@
         <v>317</v>
       </c>
       <c r="C316" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -6119,7 +6116,7 @@
         <v>319</v>
       </c>
       <c r="C318" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -6130,7 +6127,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -6152,7 +6149,7 @@
         <v>322</v>
       </c>
       <c r="C321" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -6207,7 +6204,7 @@
         <v>327</v>
       </c>
       <c r="C326" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -6218,7 +6215,7 @@
         <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6273,7 +6270,7 @@
         <v>333</v>
       </c>
       <c r="C332" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6284,7 +6281,7 @@
         <v>334</v>
       </c>
       <c r="C333" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6295,7 +6292,7 @@
         <v>335</v>
       </c>
       <c r="C334" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -6306,7 +6303,7 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6317,7 +6314,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6328,7 +6325,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6339,7 +6336,7 @@
         <v>339</v>
       </c>
       <c r="C338" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6350,7 +6347,7 @@
         <v>340</v>
       </c>
       <c r="C339" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6361,7 +6358,7 @@
         <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6372,7 +6369,7 @@
         <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6383,7 +6380,7 @@
         <v>343</v>
       </c>
       <c r="C342" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6405,7 +6402,7 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6416,7 +6413,7 @@
         <v>346</v>
       </c>
       <c r="C345" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -6427,7 +6424,7 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6449,7 +6446,7 @@
         <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6460,7 +6457,7 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6471,7 +6468,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6504,7 +6501,7 @@
         <v>354</v>
       </c>
       <c r="C353" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6526,7 +6523,7 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6537,7 +6534,7 @@
         <v>357</v>
       </c>
       <c r="C356" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6548,7 +6545,7 @@
         <v>358</v>
       </c>
       <c r="C357" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6581,7 +6578,7 @@
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6592,7 +6589,7 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6625,7 +6622,7 @@
         <v>365</v>
       </c>
       <c r="C364" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6636,7 +6633,7 @@
         <v>366</v>
       </c>
       <c r="C365" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6647,7 +6644,7 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6658,7 +6655,7 @@
         <v>368</v>
       </c>
       <c r="C367" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6669,7 +6666,7 @@
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6680,7 +6677,7 @@
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6724,7 +6721,7 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6768,7 +6765,7 @@
         <v>378</v>
       </c>
       <c r="C377" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6779,7 +6776,7 @@
         <v>379</v>
       </c>
       <c r="C378" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -6801,7 +6798,7 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6867,7 +6864,7 @@
         <v>387</v>
       </c>
       <c r="C386" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -6900,7 +6897,7 @@
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6955,7 +6952,7 @@
         <v>395</v>
       </c>
       <c r="C394" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -6966,7 +6963,7 @@
         <v>396</v>
       </c>
       <c r="C395" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -6999,7 +6996,7 @@
         <v>399</v>
       </c>
       <c r="C398" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -7010,7 +7007,7 @@
         <v>400</v>
       </c>
       <c r="C399" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -7021,7 +7018,7 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -7043,7 +7040,7 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -7054,7 +7051,7 @@
         <v>404</v>
       </c>
       <c r="C403" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -7065,7 +7062,7 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -7076,7 +7073,7 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -7087,7 +7084,7 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -7098,7 +7095,7 @@
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -7109,7 +7106,7 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -7120,7 +7117,7 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -7153,7 +7150,7 @@
         <v>413</v>
       </c>
       <c r="C412" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -7164,7 +7161,7 @@
         <v>414</v>
       </c>
       <c r="C413" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -7175,7 +7172,7 @@
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -7197,7 +7194,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7219,7 +7216,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7274,7 +7271,7 @@
         <v>424</v>
       </c>
       <c r="C423" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -7329,7 +7326,7 @@
         <v>429</v>
       </c>
       <c r="C428" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -7340,7 +7337,7 @@
         <v>430</v>
       </c>
       <c r="C429" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -7351,7 +7348,7 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7406,7 +7403,7 @@
         <v>436</v>
       </c>
       <c r="C435" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7417,7 +7414,7 @@
         <v>437</v>
       </c>
       <c r="C436" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -7428,7 +7425,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7439,7 +7436,7 @@
         <v>439</v>
       </c>
       <c r="C438" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7450,7 +7447,7 @@
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7461,7 +7458,7 @@
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7472,7 +7469,7 @@
         <v>442</v>
       </c>
       <c r="C441" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7483,7 +7480,7 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7505,7 +7502,7 @@
         <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7527,7 +7524,7 @@
         <v>447</v>
       </c>
       <c r="C446" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7538,7 +7535,7 @@
         <v>448</v>
       </c>
       <c r="C447" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -7549,7 +7546,7 @@
         <v>449</v>
       </c>
       <c r="C448" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -7571,7 +7568,7 @@
         <v>451</v>
       </c>
       <c r="C450" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7582,7 +7579,7 @@
         <v>452</v>
       </c>
       <c r="C451" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -7615,7 +7612,7 @@
         <v>455</v>
       </c>
       <c r="C454" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -7648,7 +7645,7 @@
         <v>458</v>
       </c>
       <c r="C457" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -7670,7 +7667,7 @@
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7681,7 +7678,7 @@
         <v>461</v>
       </c>
       <c r="C460" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -7692,7 +7689,7 @@
         <v>462</v>
       </c>
       <c r="C461" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -7714,7 +7711,7 @@
         <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7736,7 +7733,7 @@
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7758,7 +7755,7 @@
         <v>468</v>
       </c>
       <c r="C467" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7769,7 +7766,7 @@
         <v>469</v>
       </c>
       <c r="C468" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -7780,7 +7777,7 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7791,7 +7788,7 @@
         <v>471</v>
       </c>
       <c r="C470" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -7813,7 +7810,7 @@
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7824,7 +7821,7 @@
         <v>474</v>
       </c>
       <c r="C473" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -7857,7 +7854,7 @@
         <v>477</v>
       </c>
       <c r="C476" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -7879,7 +7876,7 @@
         <v>479</v>
       </c>
       <c r="C478" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="479" spans="1:3">
